--- a/ozon_products.xlsx
+++ b/ozon_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,141 +433,683 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="122" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="63" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="153" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="181" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="37" customWidth="1" min="10" max="10"/>
+    <col width="124" customWidth="1" min="11" max="11"/>
+    <col width="189" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Артикул</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Название товара</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Цена с картой озона</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Цена со скидкой</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Рейтинг</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Отзывы</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Продавец</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ссылка на продавца</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Данные</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ссылка на продавца</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Бренд</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Название товара</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Цена с картой озона</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Цена со скидкой</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Цена</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Рейтинг</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Отзывы</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Ссылка на товар</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Артикул</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1393129475</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Кран шаровой 3" вн-вн (2 шт) VALTEC BASE со стальной рукояткой, полнопроходной / Латунная запорная арматура ДУ 80 с рычагом для системы отопления и водоснабжения, арт. VT.214.N.11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Valtec</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38304</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40751</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>83950</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1 отзыв</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TradeON</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1647152/</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ИП Адамович Виктор Иосифович; 324774600001498</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-3-vn-vn-2-sht-valtec-base-so-stalnoy-rukoyatkoy-polnoprohodnoy-latunnaya-1393129475/?at=LZtlDKWjxIjlZKGTR62l7NF2y971yCyMPX7LuXERWgB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1968173288</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>комплект угловых кранов 1/2 для подключения гибкой подводки смесителя или водонагревателя (2 шт.)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2 отзыва</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Душевое Удовольствие</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/2426385/</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ООО ООО "ЮАНЬ ЧЖЭН ЭЛЕКТРОННАЯ КОММЕРЦИЯ"143444, Россия, Московская Область, Красногорск, Геологов, 2, 4,; 221245000067311</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-uglovyh-kranov-1-2-dlya-podklyucheniya-gibkoy-podvodki-smesitelya-ili-vodonagrevatelya-1968173288/?at=WPtNLOE97FoKj0QGsJB8x0PCVzqvz9TZOMAEnf9knEKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2157665596</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Шаровый кран Bugatti Oregon 322 с американкой 1/2", бабочка, ВР-НР, комплект</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>СантехЛидер</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1468932/</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ИП Смирнова Светлана Николаевна; 309504325900023</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovyy-kran-bugatti-oregon-322-s-amerikankoy-1-2-babochka-vr-nr-komplekt-2157665596/?at=z6tOY61glc7x9G3YCMGzEVOiyZBj9KSv6pVkriMGmKl5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1319117444</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" с внутренней и наружной резьбой (2 шт), ГАЛЛОП, серия "Практик"</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Галлоп</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 868 отзывов</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>AZEL</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1373437/</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ИП Фатхуллина Эльвира Гумяровна, ИП; 323730000050351</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-s-vnutrenney-i-naruzhnoy-rezboy-2-sht-gallop-seriya-praktik-1319117444/?at=lRt6wxrnJTGZ19w3fp9EYR9cyQZ15xszMr4M4IQqlP74</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1359745044</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" ВРхВР Veher, 1 шт латунь, ручка рычаг / кран шаровый ДУ15 латунный</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>VEHER</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 088 отзывов</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>РУСХИТ</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1369103/</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ООО "Р-СЕРВИС"129226, г. Москва, ул. Сельскохозяйственная, д.11, корп.3, эт.1, пом.II, ком.1 (РМ140)1; 227700433850</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-vrhvr-veher-1-sht-latun-ruchka-rychag-kran-sharovyy-du15-latunnyy-1359745044/?at=x6tP5klM6hYzgnR2uDzgQMjsq84KRlIBXvBwlCxl3559</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2175895852</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Кран шаровой 1/2" для воды со встроенным фильтром и редуктором давления, универсальный Valtec, VT.300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Valtec</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3055</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3259</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4938</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Акваинженер</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1344879/</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ООО ООО "АКВАИНЖЕНЕР"308008, г Белгород, ул Восточная, , д 71, 71; 233100010164</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-1-2-dlya-vody-so-vstroennym-filtrom-i-reduktorom-davleniya-universalnyy-valtec-vt-300-2175895852/?at=x6tP5klM6hmLqDARsyoO5RPTW3x2N5tVjEORyhm37yBV</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>368154455</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный 3/4" дюйма KOER (Чехия) DN20 вн/вн ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>KOER</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>48 отзывов</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Сантехника161.рф</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/240825/</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ИП Филин Артур Александрович; 319619600234071</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-3-4-dyuyma-koer-chehiya-dn20-vn-vn-ruchka-rychag-368154455/?at=83tB51GvVIV1R766tLkql10clkJwELfY35vqPsZypOV4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2081631649</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Кран шаровый полипропиленовый PPR D20 (10 шт.) для холодной и горячей воды, отопления</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>92 отзыва</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>AV-GROUP</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/2885313/</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ИП Белоус Евгений Анатольевич; 325665800094191</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-polipropilenovyy-ppr-d20-10-sht-dlya-holodnoy-i-goryachey-vody-otopleniya-2081631649/?at=k2toy9EWVTx87DEETQ12lVZcYpnmv4cr3p8lMiMn66Kk</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1410819107</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0002-2210320 3/4" ВН/НР ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>261 отзыв</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Jakko</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком.; 11235000056422</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://www.ozon.ru/seller/1384222/</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ROMMER</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Шаровой кран ROMMER RBV-0004-2210215 1/2" ВН/НР ручка бабочка</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 11; 235000056422</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0002-2210320-3-4-vn-nr-ruchka-rychag-1410819107/?at=28t021YlqTLnDEDBfG3rQ8ZUlpGg6NfENMY07HAKXz4B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>368096794</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный 1/2" дюйма KOER (Чехия) DN15 вн/нар ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KOER</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1 348 отзывов</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0004-2210215-1-2-vn-nr-ruchka-babochka-1410898273/?at=Y7tjWMl25IGxY3P2tVDJYy0H2NxPgOIpp5oJDS5rp4kK</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1410898273</t>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>72 отзыва</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Сантехника161.рф</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/240825/</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ИП Филин Артур Александрович; 319619600234071</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-1-2-dyuyma-koer-chehiya-dn15-vn-nar-ruchka-babochka-368096794/?at=79tnXlgp5sN0V0Vmc9Q717h76ngYXtApGrpAf80jBly</t>
         </is>
       </c>
     </row>

--- a/ozon_products.xlsx
+++ b/ozon_products.xlsx
@@ -434,17 +434,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="181" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="198" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
     <col width="37" customWidth="1" min="10" max="10"/>
-    <col width="124" customWidth="1" min="11" max="11"/>
-    <col width="189" customWidth="1" min="12" max="12"/>
+    <col width="156" customWidth="1" min="11" max="11"/>
+    <col width="181" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -512,32 +512,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1393129475</t>
+          <t>2003611123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Кран шаровой 3" вн-вн (2 шт) VALTEC BASE со стальной рукояткой, полнопроходной / Латунная запорная арматура ДУ 80 с рычагом для системы отопления и водоснабжения, арт. VT.214.N.11</t>
+          <t>Poco Смартфон C75 EU 6/128 ГБ, черный</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Valtec</t>
+          <t>Poco</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38304</t>
+          <t>8947</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40751</t>
+          <t>9406</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>83950</t>
+          <t>39999</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -547,175 +547,175 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 отзыв</t>
+          <t>1 310 отзывов</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TradeON</t>
+          <t>SV SMARTPHONE</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1647152/</t>
+          <t>https://www.ozon.ru/seller/1685463/</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ИП Адамович Виктор Иосифович; 324774600001498</t>
+          <t>ИП Соболь Влада Владимировна; 324290000003171</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovoy-3-vn-vn-2-sht-valtec-base-so-stalnoy-rukoyatkoy-polnoprohodnoy-latunnaya-1393129475/?at=LZtlDKWjxIjlZKGTR62l7NF2y971yCyMPX7LuXERWgB</t>
+          <t>https://www.ozon.ru/product/poco-smartfon-c75-eu-6-128-gb-chernyy-2003611123/?at=gpt41jwomszPg4nQs589RxOsWQvnKEhDgkjBKcGB1DVz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1968173288</t>
+          <t>2006925323</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>комплект угловых кранов 1/2 для подключения гибкой подводки смесителя или водонагревателя (2 шт.)</t>
+          <t>Tecno Смартфон CAMON 40 Ростест (EAC) 8/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Краны</t>
+          <t>Tecno</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>18314</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>18880</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>23990</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2 отзыва</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Душевое Удовольствие</t>
-        </is>
-      </c>
+          <t>208 отзывов</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/2426385/</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>ООО ООО "ЮАНЬ ЧЖЭН ЭЛЕКТРОННАЯ КОММЕРЦИЯ"143444, Россия, Московская Область, Красногорск, Геологов, 2, 4,; 221245000067311</t>
-        </is>
-      </c>
+          <t>https://www.ozon.ru/seller/236588/</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/komplekt-uglovyh-kranov-1-2-dlya-podklyucheniya-gibkoy-podvodki-smesitelya-ili-vodonagrevatelya-1968173288/?at=WPtNLOE97FoKj0QGsJB8x0PCVzqvz9TZOMAEnf9knEKZ</t>
+          <t>https://www.ozon.ru/product/tecno-smartfon-camon-40-rostest-eac-8-256-gb-chernyy-2006925323/?at=MZtvyLkwRfqOVN7jcgWw3BjtVXJ9vzCqDmJKPs2BwDvY</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2157665596</t>
+          <t>2133543492</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Шаровый кран Bugatti Oregon 322 с американкой 1/2", бабочка, ВР-НР, комплект</t>
+          <t>iQOO Смартфон Z10 Ростест (EAC) 8/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Краны</t>
+          <t>iQOO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>20106</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>21219</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1580</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>35999</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10 отзывов</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>СантехЛидер</t>
+          <t>iQOO Official Store</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1468932/</t>
+          <t>https://www.ozon.ru/seller/2898162/</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ИП Смирнова Светлана Николаевна; 309504325900023</t>
+          <t>ООО ООО "БАЙТ БУМ"127287, Россия, Москва, г Москва, ул Хуторская 2-я, стр 23, д 38А,; 131257700003538</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/sharovyy-kran-bugatti-oregon-322-s-amerikankoy-1-2-babochka-vr-nr-komplekt-2157665596/?at=z6tOY61glc7x9G3YCMGzEVOiyZBj9KSv6pVkriMGmKl5</t>
+          <t>https://www.ozon.ru/product/iqoo-smartfon-z10-rostest-eac-8-256-gb-chernyy-2133543492/?at=08tYX9g7McP6qr4QSEpQ9REc7kR46DsLwr80VIA2ownp</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1319117444</t>
+          <t>1771387609</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Кран шаровый 1/2" с внутренней и наружной резьбой (2 шт), ГАЛЛОП, серия "Практик"</t>
+          <t>realme Смартфон Note 60X Ростест (EAC) 3/64 ГБ, черный</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Галлоп</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>4999</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>8499</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -725,237 +725,245 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2 868 отзывов</t>
+          <t>7 034 отзыва</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AZEL</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1373437/</t>
+          <t>https://www.ozon.ru/seller/216243/</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ИП Фатхуллина Эльвира Гумяровна, ИП; 323730000050351</t>
+          <t>ООО ООО "РМ КОММЬЮНИКЕЙШН"115280, г. Москва, вн.тер.г. Муниципальный округ Даниловский, улица Ленинская Слобода, Д. 19, помещение 21В/1H/5.1; 197746267355</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-s-vnutrenney-i-naruzhnoy-rezboy-2-sht-gallop-seriya-praktik-1319117444/?at=lRt6wxrnJTGZ19w3fp9EYR9cyQZ15xszMr4M4IQqlP74</t>
+          <t>https://www.ozon.ru/product/realme-smartfon-note-60x-rostest-eac-3-64-gb-chernyy-1771387609/?at=mqtko7PgAcEl1Y10coOx5McRM6BQJUojZmZ0UK6GZWY</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1359745044</t>
+          <t>1869776225</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Кран шаровый 1/2" ВРхВР Veher, 1 шт латунь, ручка рычаг / кран шаровый ДУ15 латунный</t>
+          <t>Redmi Смартфон 8/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>VEHER</t>
+          <t>Redmi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>5901</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>13999</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2 088 отзывов</t>
+          <t>466 отзывов</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>РУСХИТ</t>
+          <t>Bao Phone</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1369103/</t>
+          <t>https://www.ozon.ru/seller/2597173/</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ООО "Р-СЕРВИС"129226, г. Москва, ул. Сельскохозяйственная, д.11, корп.3, эт.1, пом.II, ком.1 (РМ140)1; 227700433850</t>
+          <t>ИП Идалов Ибрагим Усманович; 321200000013285</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-vrhvr-veher-1-sht-latun-ruchka-rychag-kran-sharovyy-du15-latunnyy-1359745044/?at=x6tP5klM6hYzgnR2uDzgQMjsq84KRlIBXvBwlCxl3559</t>
+          <t>https://www.ozon.ru/product/redmi-smartfon-8-256-gb-chernyy-1869776225/?at=DqtDLWJEnuj1wKBks45Lo6otB73YGlhPY3ZnoSlmOxMm</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2175895852</t>
+          <t>1711714454</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Кран шаровой 1/2" для воды со встроенным фильтром и редуктором давления, универсальный Valtec, VT.300</t>
+          <t>Tecno Смартфон Spark 30 5G Ростест (EAC) 6/128 ГБ, черный</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Valtec</t>
+          <t>Tecno</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3055</t>
+          <t>10011</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3259</t>
+          <t>10524</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4938</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>19990</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>971 отзыв</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Акваинженер</t>
+          <t>TECNO STORE</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1344879/</t>
+          <t>https://www.ozon.ru/seller/1452131/</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>ООО ООО "АКВАИНЖЕНЕР"308008, г Белгород, ул Восточная, , д 71, 71; 233100010164</t>
+          <t>ООО ООО "КИБЕР ЭНЕРДЖИ"127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д; 321237700690864</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovoy-1-2-dlya-vody-so-vstroennym-filtrom-i-reduktorom-davleniya-universalnyy-valtec-vt-300-2175895852/?at=x6tP5klM6hmLqDARsyoO5RPTW3x2N5tVjEORyhm37yBV</t>
+          <t>https://www.ozon.ru/product/tecno-smartfon-spark-30-5g-rostest-eac-6-128-gb-chernyy-1711714454/?at=vQtrnPLY2tPD6WAphBNjgR5uQzJvkOu1oy4DZHpYNjy6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>368154455</t>
+          <t>1897984574</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Кран шаровой латунный 3/4" дюйма KOER (Чехия) DN20 вн/вн ручка рычаг</t>
+          <t>Смартфон 6,5-дюймовый противоударный смартфон Note60x, смартфон на базе Android 13, смартфон с большим объемом памяти, смартфон для студентов, поддержка русского языка Global 8/256 ГБ, черно-серый</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KOER</t>
+          <t>Смартфоны</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>3233</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>48 отзывов</t>
+          <t>216 отзывов</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Сантехника161.рф</t>
+          <t>Флагманский магазин UP</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/240825/</t>
+          <t>https://www.ozon.ru/seller/2489768/</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ИП Филин Артур Александрович; 319619600234071</t>
+          <t>Yaofengbaihuo</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-3-4-dyuyma-koer-chehiya-dn20-vn-vn-ruchka-rychag-368154455/?at=83tB51GvVIV1R766tLkql10clkJwELfY35vqPsZypOV4</t>
+          <t>https://www.ozon.ru/product/smartfon-6-5-dyuymovyy-protivoudarnyy-smartfon-note60x-smartfon-na-baze-android-13-smartfon-1897984574/?at=GRt2NPOD0ck9ZDXzuNYNgNgHqy77nqiORKk4GIm79JBr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2081631649</t>
+          <t>1743461395</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Кран шаровый полипропиленовый PPR D20 (10 шт.) для холодной и горячей воды, отопления</t>
+          <t>Tecno Смартфон Spark 30 Ростест (EAC) 8/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Краны</t>
+          <t>Tecno</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>10633</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>11179</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>18990</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -965,59 +973,59 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>92 отзыва</t>
+          <t>3 053 отзыва</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>AV-GROUP</t>
+          <t>TECNO STORE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/2885313/</t>
+          <t>https://www.ozon.ru/seller/1452131/</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ИП Белоус Евгений Анатольевич; 325665800094191</t>
+          <t>ООО ООО "КИБЕР ЭНЕРДЖИ"127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д; 321237700690864</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovyy-polipropilenovyy-ppr-d20-10-sht-dlya-holodnoy-i-goryachey-vody-otopleniya-2081631649/?at=k2toy9EWVTx87DEETQ12lVZcYpnmv4cr3p8lMiMn66Kk</t>
+          <t>https://www.ozon.ru/product/tecno-smartfon-spark-30-rostest-eac-8-256-gb-chernyy-1743461395/?at=28t024ZBRf1L62mrCrRoX7nUl183plT4l4g3yfzPQ6rP</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1410819107</t>
+          <t>2137918430</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Шаровой кран ROMMER RBV-0002-2210320 3/4" ВН/НР ручка рычаг</t>
+          <t>iQOO Смартфон Neo 10 Ростест (EAC) 16/512 ГБ, черный, черно-серый</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ROMMER</t>
+          <t>iQOO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>37482</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>39635</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>52999</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1027,59 +1035,59 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>261 отзыв</t>
+          <t>11 отзывов</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Jakko</t>
+          <t>iQOO Official Store</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1384222/</t>
+          <t>https://www.ozon.ru/seller/2898162/</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 11; 235000056422</t>
+          <t>ООО ООО "БАЙТ БУМ"127287, Россия, Москва, г Москва, ул Хуторская 2-я, стр 23, д 38А,; 131257700003538</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0002-2210320-3-4-vn-nr-ruchka-rychag-1410819107/?at=28t021YlqTLnDEDBfG3rQ8ZUlpGg6NfENMY07HAKXz4B</t>
+          <t>https://www.ozon.ru/product/iqoo-smartfon-neo-10-rostest-eac-16-512-gb-chernyy-cherno-seryy-2137918430/?at=DqtDLWJEnu2BPmlPhOOk5kqckvYk78h9NmxwVckyxK85</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>368096794</t>
+          <t>1469526277</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Кран шаровой латунный 1/2" дюйма KOER (Чехия) DN15 вн/нар ручка бабочка</t>
+          <t>Tecno Смартфон POVA 6 Pro 5G Ростест (EAC) 12/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KOER</t>
+          <t>Tecno</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>22806</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>24069</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>38337</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1089,27 +1097,27 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>72 отзыва</t>
+          <t>2 221 отзыв</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Сантехника161.рф</t>
+          <t>TECNO STORE</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/240825/</t>
+          <t>https://www.ozon.ru/seller/1452131/</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>ИП Филин Артур Александрович; 319619600234071</t>
+          <t>ООО ООО "КИБЕР ЭНЕРДЖИ"127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д; 321237700690864</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-1-2-dyuyma-koer-chehiya-dn15-vn-nar-ruchka-babochka-368096794/?at=79tnXlgp5sN0V0Vmc9Q717h76ngYXtApGrpAf80jBly</t>
+          <t>https://www.ozon.ru/product/tecno-smartfon-pova-6-pro-5g-rostest-eac-12-256-gb-chernyy-1469526277/?at=Y7tjWvpnNClrrYVXuXvOzD3hYX1vywtNlAkYKTQo0Zql</t>
         </is>
       </c>
     </row>

--- a/ozon_products.xlsx
+++ b/ozon_products.xlsx
@@ -434,17 +434,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="198" customWidth="1" min="2" max="2"/>
+    <col width="64" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
     <col width="37" customWidth="1" min="10" max="10"/>
     <col width="156" customWidth="1" min="11" max="11"/>
-    <col width="181" customWidth="1" min="12" max="12"/>
+    <col width="149" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -512,210 +512,218 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2003611123</t>
+          <t>1970797104</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poco Смартфон C75 EU 6/128 ГБ, черный</t>
+          <t>Redmi Смартфон redmi13 Ростест (EAC) 8/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Poco</t>
+          <t>Redmi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8947</t>
+          <t>9591</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9406</t>
+          <t>10061</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>39999</t>
+          <t>20900</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 310 отзывов</t>
+          <t>32 отзыва</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SV SMARTPHONE</t>
+          <t>STAR shop</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1685463/</t>
+          <t>https://www.ozon.ru/seller/2749199/</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ИП Соболь Влада Владимировна; 324290000003171</t>
+          <t>ИП Фу Шоули; 325665800057835</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/poco-smartfon-c75-eu-6-128-gb-chernyy-2003611123/?at=gpt41jwomszPg4nQs589RxOsWQvnKEhDgkjBKcGB1DVz</t>
+          <t>https://www.ozon.ru/product/redmi-smartfon-redmi13-rostest-eac-8-256-gb-chernyy-1970797104/?at=QktJ1KmRMcW4klOHGNxJBmSO1ONE0s67jK5msRQPmEn</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2006925323</t>
+          <t>1787663051</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tecno Смартфон CAMON 40 Ростест (EAC) 8/256 ГБ, черный</t>
+          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, темно-серый, черный</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tecno</t>
+          <t>GK Retail</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18314</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18880</t>
+          <t>5934</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>23990</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>208 отзывов</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>5 427 отзывов</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>GK Market</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/236588/</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>https://www.ozon.ru/seller/1713457/</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ИП Каширина Галина Викторовна; 324010000003051</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/tecno-smartfon-camon-40-rostest-eac-8-256-gb-chernyy-2006925323/?at=MZtvyLkwRfqOVN7jcgWw3BjtVXJ9vzCqDmJKPs2BwDvY</t>
+          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-temno-seryy-chernyy-1787663051/?at=ywtAPQE4qu1go3nFgO8mPZUXNlr7KHyYNgVjFoxjBDp</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2133543492</t>
+          <t>1469526277</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>iQOO Смартфон Z10 Ростест (EAC) 8/256 ГБ, черный</t>
+          <t>Tecno Смартфон POVA 6 Pro 5G Ростест (EAC) 12/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>iQOO</t>
+          <t>Tecno</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20106</t>
+          <t>22806</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21219</t>
+          <t>24069</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>35999</t>
+          <t>38337</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10 отзывов</t>
+          <t>2 222 отзыва</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>iQOO Official Store</t>
+          <t>TECNO STORE</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/2898162/</t>
+          <t>https://www.ozon.ru/seller/1452131/</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ООО ООО "БАЙТ БУМ"127287, Россия, Москва, г Москва, ул Хуторская 2-я, стр 23, д 38А,; 131257700003538</t>
+          <t>ООО ООО "КИБЕР ЭНЕРДЖИ"127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д; 321237700690864</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/iqoo-smartfon-z10-rostest-eac-8-256-gb-chernyy-2133543492/?at=08tYX9g7McP6qr4QSEpQ9REc7kR46DsLwr80VIA2ownp</t>
+          <t>https://www.ozon.ru/product/tecno-smartfon-pova-6-pro-5g-rostest-eac-12-256-gb-chernyy-1469526277/?at=nRtrZ1QWAHEE53yyukMOE9xsW0Yw37iNXrY8oSAkEQR4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1771387609</t>
+          <t>1933995627</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>realme Смартфон Note 60X Ростест (EAC) 3/64 ГБ, черный</t>
+          <t>OPPO Смартфон A5 Pro Ростест (EAC) 8/256 ГБ, коричневый</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>realme</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>12399</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>15499</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8499</t>
+          <t>22999</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -725,121 +733,121 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7 034 отзыва</t>
+          <t>1 493 отзыва</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>realme</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/216243/</t>
+          <t>https://www.ozon.ru/seller/171048/</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ООО ООО "РМ КОММЬЮНИКЕЙШН"115280, г. Москва, вн.тер.г. Муниципальный округ Даниловский, улица Ленинская Слобода, Д. 19, помещение 21В/1H/5.1; 197746267355</t>
+          <t>ООО ДС КОММЬЮНИКЕЙШНг. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф1; 177746805708</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/realme-smartfon-note-60x-rostest-eac-3-64-gb-chernyy-1771387609/?at=mqtko7PgAcEl1Y10coOx5McRM6BQJUojZmZ0UK6GZWY</t>
+          <t>https://www.ozon.ru/product/oppo-smartfon-a5-pro-rostest-eac-8-256-gb-korichnevyy-1933995627/?at=GRt2NPo8KSEAxjmOs847gG9fRngo8ws7nZjY0Ip9m0jD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1869776225</t>
+          <t>1657216721</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Redmi Смартфон 8/256 ГБ, черный</t>
+          <t>Tecno Смартфон POP 7+SIM-карта МегаФон 2/64 ГБ, черный</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Redmi</t>
+          <t>Tecno</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5901</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>4094</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13999</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>466 отзывов</t>
+          <t>13 194 отзыва</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Bao Phone</t>
+          <t>МегаФон</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/2597173/</t>
+          <t>https://www.ozon.ru/seller/568238/</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ИП Идалов Ибрагим Усманович; 321200000013285</t>
+          <t>АО АО "МЕГАФОН РИТЕЙЛ"</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/redmi-smartfon-8-256-gb-chernyy-1869776225/?at=DqtDLWJEnuj1wKBks45Lo6otB73YGlhPY3ZnoSlmOxMm</t>
+          <t>https://www.ozon.ru/product/tecno-smartfon-pop-7-sim-karta-megafon-2-64-gb-chernyy-1657216721/?at=jYtZ4wkOKCMAZ1jpC1jNEk6tVPNjWnur80KmLuwjY6nz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1711714454</t>
+          <t>1773407493</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tecno Смартфон Spark 30 5G Ростест (EAC) 6/128 ГБ, черный</t>
+          <t>realme Смартфон realme Note 60 Ростест (EAC) 4/128 ГБ, голубой</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tecno</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10011</t>
+          <t>5487</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10524</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>19990</t>
+          <t>9999</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -849,183 +857,179 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>971 отзыв</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>TECNO STORE</t>
-        </is>
-      </c>
+          <t>3 232 отзыва</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1452131/</t>
+          <t>https://www.ozon.ru/seller/529384/</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>ООО ООО "КИБЕР ЭНЕРДЖИ"127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д; 321237700690864</t>
+          <t>Wuhan Minghe Technology Co., Ltd</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/tecno-smartfon-spark-30-5g-rostest-eac-6-128-gb-chernyy-1711714454/?at=vQtrnPLY2tPD6WAphBNjgR5uQzJvkOu1oy4DZHpYNjy6</t>
+          <t>https://www.ozon.ru/product/realme-smartfon-realme-note-60-rostest-eac-4-128-gb-goluboy-1773407493/?at=Z8tXqwyjrFl3E4q6UVBo8JNfxQ731jCGQnJrgsZoX7Yn</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1897984574</t>
+          <t>1699432008</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Смартфон 6,5-дюймовый противоударный смартфон Note60x, смартфон на базе Android 13, смартфон с большим объемом памяти, смартфон для студентов, поддержка русского языка Global 8/256 ГБ, черно-серый</t>
+          <t>OPPO Смартфон A3x Ростест (EAC) 4/128 ГБ, бордовый</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Смартфоны</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>5586</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3233</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3773</t>
+          <t>11999</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>216 отзывов</t>
+          <t>1 180 отзывов</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Флагманский магазин UP</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/2489768/</t>
+          <t>https://www.ozon.ru/seller/171048/</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Yaofengbaihuo</t>
+          <t>ООО ДС КОММЬЮНИКЕЙШНг. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф1; 177746805708</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/smartfon-6-5-dyuymovyy-protivoudarnyy-smartfon-note60x-smartfon-na-baze-android-13-smartfon-1897984574/?at=GRt2NPOD0ck9ZDXzuNYNgNgHqy77nqiORKk4GIm79JBr</t>
+          <t>https://www.ozon.ru/product/oppo-smartfon-a3x-rostest-eac-4-128-gb-bordovyy-1699432008/?at=vQtrnPolpHjM8owVfN47v6jfRwMz2VCDpDPA3T9xVJpY</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1743461395</t>
+          <t>1699428524</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tecno Смартфон Spark 30 Ростест (EAC) 8/256 ГБ, черный</t>
+          <t>OPPO Смартфон A3x Ростест (EAC) 4/128 ГБ, лазурный</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tecno</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10633</t>
+          <t>5586</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11179</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>18990</t>
+          <t>11999</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3 053 отзыва</t>
+          <t>1 180 отзывов</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TECNO STORE</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1452131/</t>
+          <t>https://www.ozon.ru/seller/171048/</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ООО ООО "КИБЕР ЭНЕРДЖИ"127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д; 321237700690864</t>
+          <t>ООО ДС КОММЬЮНИКЕЙШНг. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф1; 177746805708</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/tecno-smartfon-spark-30-rostest-eac-8-256-gb-chernyy-1743461395/?at=28t024ZBRf1L62mrCrRoX7nUl183plT4l4g3yfzPQ6rP</t>
+          <t>https://www.ozon.ru/product/oppo-smartfon-a3x-rostest-eac-4-128-gb-lazurnyy-1699428524/?at=J8tgW2Pn3s3B3j4VC64vvv0c0X74YQupNy61PcOORvoj</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2137918430</t>
+          <t>1771387609</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>iQOO Смартфон Neo 10 Ростест (EAC) 16/512 ГБ, черный, черно-серый</t>
+          <t>realme Смартфон Note 60X Ростест (EAC) 3/64 ГБ, черный</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>iQOO</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>37482</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>39635</t>
+          <t>4999</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>52999</t>
+          <t>8499</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1035,89 +1039,89 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11 отзывов</t>
+          <t>7 048 отзывов</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>iQOO Official Store</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/2898162/</t>
+          <t>https://www.ozon.ru/seller/216243/</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ООО ООО "БАЙТ БУМ"127287, Россия, Москва, г Москва, ул Хуторская 2-я, стр 23, д 38А,; 131257700003538</t>
+          <t>ООО ООО "РМ КОММЬЮНИКЕЙШН"115280, г. Москва, вн.тер.г. Муниципальный округ Даниловский, улица Ленинская Слобода, Д. 19, помещение 21В/1H/5.1; 197746267355</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/iqoo-smartfon-neo-10-rostest-eac-16-512-gb-chernyy-cherno-seryy-2137918430/?at=DqtDLWJEnu2BPmlPhOOk5kqckvYk78h9NmxwVckyxK85</t>
+          <t>https://www.ozon.ru/product/realme-smartfon-note-60x-rostest-eac-3-64-gb-chernyy-1771387609/?at=NOtwqQ16DcLLJQQQHRNvYgVCpo28RZH5n5lKrhmK17gE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1469526277</t>
+          <t>1813742165</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tecno Смартфон POVA 6 Pro 5G Ростест (EAC) 12/256 ГБ, черный</t>
+          <t>Cubot Смартфон MAX5 Global 24/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tecno</t>
+          <t>Cubot</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22806</t>
+          <t>16863</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24069</t>
+          <t>17952</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>38337</t>
+          <t>83412</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2 221 отзыв</t>
+          <t>15 отзывов</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TECNO STORE</t>
+          <t>Cubot official store</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1452131/</t>
+          <t>https://www.ozon.ru/seller/1863010/</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>ООО ООО "КИБЕР ЭНЕРДЖИ"127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д; 321237700690864</t>
+          <t>HUNCHUN HUIDUODUO E-COMMERCE CO.,LTD</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/tecno-smartfon-pova-6-pro-5g-rostest-eac-12-256-gb-chernyy-1469526277/?at=Y7tjWvpnNClrrYVXuXvOzD3hYX1vywtNlAkYKTQo0Zql</t>
+          <t>https://www.ozon.ru/product/cubot-smartfon-max5-global-24-256-gb-chernyy-1813742165/?at=QktJ1KmRMcKRzMDDH52GpM9UZNO0N6SvN3o8JIAEnD8</t>
         </is>
       </c>
     </row>

--- a/ozon_products.xlsx
+++ b/ozon_products.xlsx
@@ -441,9 +441,9 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
     <col width="37" customWidth="1" min="10" max="10"/>
-    <col width="156" customWidth="1" min="11" max="11"/>
+    <col width="154" customWidth="1" min="11" max="11"/>
     <col width="149" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
@@ -512,248 +512,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1970797104</t>
+          <t>1699428524</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Redmi Смартфон redmi13 Ростест (EAC) 8/256 ГБ, черный</t>
+          <t>OPPO Смартфон A3x Ростест (EAC) 4/128 ГБ, лазурный</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Redmi</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9591</t>
+          <t>5586</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10061</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20900</t>
+          <t>11999</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>32 отзыва</t>
+          <t>1 180 отзывов</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>STAR shop</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/2749199/</t>
+          <t>https://www.ozon.ru/seller/171048/</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ИП Фу Шоули; 325665800057835</t>
+          <t>ООО ДС КОММЬЮНИКЕЙШН; г. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф; 1177746805708</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/redmi-smartfon-redmi13-rostest-eac-8-256-gb-chernyy-1970797104/?at=QktJ1KmRMcW4klOHGNxJBmSO1ONE0s67jK5msRQPmEn</t>
+          <t>https://www.ozon.ru/product/oppo-smartfon-a3x-rostest-eac-4-128-gb-lazurnyy-1699428524/?at=BrtzXkZB1cXPLgr1FqAN3yKhz4vGWGCww8jZ0iKGKDQ7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1787663051</t>
+          <t>1967368424</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, темно-серый, черный</t>
+          <t>Xiaomi Смартфон 15 12/512 ГБ, белый</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GK Retail</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>72805</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5934</t>
+          <t>75953</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>99087</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5 427 отзывов</t>
+          <t>16 отзывов</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GK Market</t>
+          <t>Bezryad-Tech</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1713457/</t>
+          <t>https://www.ozon.ru/seller/1816333/</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ИП Каширина Галина Викторовна; 324010000003051</t>
+          <t>ИП Безрядин Юрий Романович; 324774600168526</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-temno-seryy-chernyy-1787663051/?at=ywtAPQE4qu1go3nFgO8mPZUXNlr7KHyYNgVjFoxjBDp</t>
+          <t>https://www.ozon.ru/product/xiaomi-smartfon-15-12-512-gb-belyy-1967368424/?at=k2toyRL17hZ06nlMijA4NMrInrWn0Pi4WD9vEfNmpYDV</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1469526277</t>
+          <t>2212824600</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tecno Смартфон POVA 6 Pro 5G Ростест (EAC) 12/256 ГБ, черный</t>
+          <t>Meizu Смартфон Meizu Mblu 22Pro Ростест (EAC) 6/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tecno</t>
+          <t>Meizu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22806</t>
+          <t>6594</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24069</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>38337</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2 222 отзыва</t>
-        </is>
-      </c>
+          <t>25456</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TECNO STORE</t>
+          <t>Real Digital Store</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1452131/</t>
+          <t>https://www.ozon.ru/seller/800009/</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ООО ООО "КИБЕР ЭНЕРДЖИ"127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д; 321237700690864</t>
+          <t>Binzhou Bincheng District Guaiguai E-commerce Co., Ltd.; Room 816-1, Economic Digital Industrial Park; CN, Binzhou City</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/tecno-smartfon-pova-6-pro-5g-rostest-eac-12-256-gb-chernyy-1469526277/?at=nRtrZ1QWAHEE53yyukMOE9xsW0Yw37iNXrY8oSAkEQR4</t>
+          <t>https://www.ozon.ru/product/meizu-smartfon-meizu-mblu-22pro-rostest-eac-6-256-gb-chernyy-2212824600/?at=83tB5AJLlUxvorpghmVL5BcqBQwK4FENMwJvuZgQO8G</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1933995627</t>
+          <t>1842358415</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OPPO Смартфон A5 Pro Ростест (EAC) 8/256 ГБ, коричневый</t>
+          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, малиновый</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>GK Retail</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12399</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15499</t>
+          <t>5934</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22999</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1 493 отзыва</t>
+          <t>4 188 отзывов</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>GK Market</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/171048/</t>
+          <t>https://www.ozon.ru/seller/1713457/</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ООО ДС КОММЬЮНИКЕЙШНг. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф1; 177746805708</t>
+          <t>ИП Каширина Галина Викторовна; 324010000003051</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/oppo-smartfon-a5-pro-rostest-eac-8-256-gb-korichnevyy-1933995627/?at=GRt2NPo8KSEAxjmOs847gG9fRngo8ws7nZjY0Ip9m0jD</t>
+          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-malinovyy-1842358415/?at=qQtJyx4lDcp4W4qATx8oVWxsnLqELGsAqppz8TOgDQzG</t>
         </is>
       </c>
     </row>
@@ -810,44 +802,44 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>АО АО "МЕГАФОН РИТЕЙЛ"</t>
+          <t>АО "МЕГАФОН РИТЕЙЛ"; г Москва, Оружейный пер, д 41, оф 558; 1027809220317</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/tecno-smartfon-pop-7-sim-karta-megafon-2-64-gb-chernyy-1657216721/?at=jYtZ4wkOKCMAZ1jpC1jNEk6tVPNjWnur80KmLuwjY6nz</t>
+          <t>https://www.ozon.ru/product/tecno-smartfon-pop-7-sim-karta-megafon-2-64-gb-chernyy-1657216721/?at=46tR2nj3ysD8k3K5i11W8PVSyJBKkgFXPr4n4I03X90M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1773407493</t>
+          <t>1936982238</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>realme Смартфон realme Note 60 Ростест (EAC) 4/128 ГБ, голубой</t>
+          <t>OPPO Смартфон A5 Pro Ростест (EAC) 8/256 ГБ, оливковый</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>realme</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5487</t>
+          <t>12399</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>15499</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9999</t>
+          <t>22999</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -857,271 +849,271 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3 232 отзыва</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>1 493 отзыва</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>OPPO</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/529384/</t>
+          <t>https://www.ozon.ru/seller/171048/</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wuhan Minghe Technology Co., Ltd</t>
+          <t>ООО ДС КОММЬЮНИКЕЙШН; г. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф; 1177746805708</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/realme-smartfon-realme-note-60-rostest-eac-4-128-gb-goluboy-1773407493/?at=Z8tXqwyjrFl3E4q6UVBo8JNfxQ731jCGQnJrgsZoX7Yn</t>
+          <t>https://www.ozon.ru/product/oppo-smartfon-a5-pro-rostest-eac-8-256-gb-olivkovyy-1936982238/?at=XQtkPg601F2909rtOVmYJQtgPZqo7uJ0k5B1UWOM40V</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1699432008</t>
+          <t>1728097072</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OPPO Смартфон A3x Ростест (EAC) 4/128 ГБ, бордовый</t>
+          <t>HUAWEI Смартфон Pura 70 12/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>46463</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>48399</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11999</t>
+          <t>54999</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1 180 отзывов</t>
+          <t>17 отзывов</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Federal Express</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/171048/</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>ООО ДС КОММЬЮНИКЕЙШНг. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф1; 177746805708</t>
-        </is>
-      </c>
+          <t>https://www.ozon.ru/seller/2233584/</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/oppo-smartfon-a3x-rostest-eac-4-128-gb-bordovyy-1699432008/?at=vQtrnPolpHjM8owVfN47v6jfRwMz2VCDpDPA3T9xVJpY</t>
+          <t>https://www.ozon.ru/product/huawei-smartfon-pura-70-12-256-gb-chernyy-1728097072/?at=VvtznE497cAPLlKvfJr5vWGuEgVgY1fv2Z9X6cvvKgo9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1699428524</t>
+          <t>2003611123</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OPPO Смартфон A3x Ростест (EAC) 4/128 ГБ, лазурный</t>
+          <t>Poco Смартфон C75 EU 6/128 ГБ, черный</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Poco</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>8947</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>9406</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11999</t>
+          <t>39999</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1 180 отзывов</t>
+          <t>1 313 отзывов</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>SV SMARTPHONE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/171048/</t>
+          <t>https://www.ozon.ru/seller/1685463/</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ООО ДС КОММЬЮНИКЕЙШНг. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф1; 177746805708</t>
+          <t>ИП Соболь Влада Владимировна; 324290000003171</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/oppo-smartfon-a3x-rostest-eac-4-128-gb-lazurnyy-1699428524/?at=J8tgW2Pn3s3B3j4VC64vvv0c0X74YQupNy61PcOORvoj</t>
+          <t>https://www.ozon.ru/product/poco-smartfon-c75-eu-6-128-gb-chernyy-2003611123/?at=OgtELgP4JhE24ovlhBqxGmBfvQ3MVYUPrPmgizAQ5pz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1771387609</t>
+          <t>1785849800</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>realme Смартфон Note 60X Ростест (EAC) 3/64 ГБ, черный</t>
+          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, черный, хром</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>realme</t>
+          <t>GK Retail</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>5934</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8499</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7 048 отзывов</t>
+          <t>4 418 отзывов</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>realme</t>
+          <t>GK Market</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/216243/</t>
+          <t>https://www.ozon.ru/seller/1713457/</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ООО ООО "РМ КОММЬЮНИКЕЙШН"115280, г. Москва, вн.тер.г. Муниципальный округ Даниловский, улица Ленинская Слобода, Д. 19, помещение 21В/1H/5.1; 197746267355</t>
+          <t>ИП Каширина Галина Викторовна; 324010000003051</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/realme-smartfon-note-60x-rostest-eac-3-64-gb-chernyy-1771387609/?at=NOtwqQ16DcLLJQQQHRNvYgVCpo28RZH5n5lKrhmK17gE</t>
+          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-chernyy-hrom-1785849800/?at=gpt41jgprh7xl9KLtQ7JjlmIzA9vryFW2JOzMsnzwOAm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1813742165</t>
+          <t>1771387609</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cubot Смартфон MAX5 Global 24/256 ГБ, черный</t>
+          <t>realme Смартфон Note 60X Ростест (EAC) 3/64 ГБ, черный</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cubot</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16863</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17952</t>
+          <t>4999</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>83412</t>
+          <t>8499</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15 отзывов</t>
+          <t>7 048 отзывов</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Cubot official store</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1863010/</t>
+          <t>https://www.ozon.ru/seller/216243/</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>HUNCHUN HUIDUODUO E-COMMERCE CO.,LTD</t>
+          <t>ООО "РМ КОММЬЮНИКЕЙШН"; 115280, г. Москва, вн.тер.г. Муниципальный округ Даниловский, улица Ленинская Слобода, Д. 19, помещение 21В/1H/5.; 1197746267355</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/cubot-smartfon-max5-global-24-256-gb-chernyy-1813742165/?at=QktJ1KmRMcKRzMDDH52GpM9UZNO0N6SvN3o8JIAEnD8</t>
+          <t>https://www.ozon.ru/product/realme-smartfon-note-60x-rostest-eac-3-64-gb-chernyy-1771387609/?at=DqtDLW601T7MOqrmU3z2kLAUN1X2JnHnvoL0ocqM2P0P</t>
         </is>
       </c>
     </row>

--- a/ozon_products.xlsx
+++ b/ozon_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="64" customWidth="1" min="2" max="2"/>
+    <col width="63" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
@@ -443,7 +443,7 @@
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="37" customWidth="1" min="10" max="10"/>
-    <col width="154" customWidth="1" min="11" max="11"/>
+    <col width="100" customWidth="1" min="11" max="11"/>
     <col width="149" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
@@ -512,94 +512,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1699428524</t>
+          <t>1849970704</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OPPO Смартфон A3x Ростест (EAC) 4/128 ГБ, лазурный</t>
+          <t>Apple Смартфон iPhone 13 4/256 ГБ, розовый</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>34756</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>36649</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11999</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 180 отзывов</t>
+          <t>82 отзыва</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Телефонный звонок</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/171048/</t>
+          <t>https://www.ozon.ru/seller/2566435/</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ООО ДС КОММЬЮНИКЕЙШН; г. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф; 1177746805708</t>
+          <t>ООО "МДА"; 427243, Россия, Удмуртская Республика, Кыйлуд, ул Полевая, д 1; 1251800000253</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/oppo-smartfon-a3x-rostest-eac-4-128-gb-lazurnyy-1699428524/?at=BrtzXkZB1cXPLgr1FqAN3yKhz4vGWGCww8jZ0iKGKDQ7</t>
+          <t>https://www.ozon.ru/product/apple-smartfon-iphone-13-4-256-gb-rozovyy-1849970704/?at=WPtNLQpG2s0j9yBZUp5rK9JcmPmGo5TogLP2Ef1p5oNz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1967368424</t>
+          <t>2003611081</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Xiaomi Смартфон 15 12/512 ГБ, белый</t>
+          <t>Poco Смартфон POCO C65 EU 8/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>Poco</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72805</t>
+          <t>13840</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75953</t>
+          <t>14571</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>99087</t>
+          <t>39999</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -609,93 +609,101 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16 отзывов</t>
+          <t>1 048 отзывов</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bezryad-Tech</t>
+          <t>SV SMARTPHONE</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1816333/</t>
+          <t>https://www.ozon.ru/seller/1685463/</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ИП Безрядин Юрий Романович; 324774600168526</t>
+          <t>ИП Соболь Влада Владимировна; 324290000003171</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/xiaomi-smartfon-15-12-512-gb-belyy-1967368424/?at=k2toyRL17hZ06nlMijA4NMrInrWn0Pi4WD9vEfNmpYDV</t>
+          <t>https://www.ozon.ru/product/poco-smartfon-poco-c65-eu-8-256-gb-chernyy-2003611081/?at=K8tZyYAmlHMjLxnNSGBrWBYC4PGWo6HK3A9JEIEJlNLz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2212824600</t>
+          <t>1787663051</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Meizu Смартфон Meizu Mblu 22Pro Ростест (EAC) 6/256 ГБ, черный</t>
+          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, темно-серый, черный</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Meizu</t>
+          <t>GK Retail</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6594</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>5934</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25456</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 427 отзывов</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Real Digital Store</t>
+          <t>GK Market</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/800009/</t>
+          <t>https://www.ozon.ru/seller/1713457/</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Binzhou Bincheng District Guaiguai E-commerce Co., Ltd.; Room 816-1, Economic Digital Industrial Park; CN, Binzhou City</t>
+          <t>ИП Каширина Галина Викторовна; 324010000003051</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/meizu-smartfon-meizu-mblu-22pro-rostest-eac-6-256-gb-chernyy-2212824600/?at=83tB5AJLlUxvorpghmVL5BcqBQwK4FENMwJvuZgQO8G</t>
+          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-temno-seryy-chernyy-1787663051/?at=oZt6V1oZMu5X9OmMtOB7KGxH83BwPVuMmRJWrH8kwGBK</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1842358415</t>
+          <t>1785849800</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, малиновый</t>
+          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, черный, хром</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -715,17 +723,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4 188 отзывов</t>
+          <t>4 418 отзывов</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -738,46 +746,42 @@
           <t>https://www.ozon.ru/seller/1713457/</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>ИП Каширина Галина Викторовна; 324010000003051</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-malinovyy-1842358415/?at=qQtJyx4lDcp4W4qATx8oVWxsnLqELGsAqppz8TOgDQzG</t>
+          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-chernyy-hrom-1785849800/?at=J8tgW245RunVPA2JUOq7PoLuy051WgHglK6WlI9OAznk</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1657216721</t>
+          <t>1699428524</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tecno Смартфон POP 7+SIM-карта МегаФон 2/64 ГБ, черный</t>
+          <t>OPPO Смартфон A3x Ростест (EAC) 4/128 ГБ, лазурный</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tecno</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3894</t>
+          <t>5586</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4094</t>
+          <t>6983</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>11999</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -787,333 +791,189 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13 194 отзыва</t>
+          <t>1 183 отзыва</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>МегаФон</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/568238/</t>
+          <t>https://www.ozon.ru/seller/171048/</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>АО "МЕГАФОН РИТЕЙЛ"; г Москва, Оружейный пер, д 41, оф 558; 1027809220317</t>
+          <t>ООО ДС КОММЬЮНИКЕЙШН; г. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф; 1177746805708</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/tecno-smartfon-pop-7-sim-karta-megafon-2-64-gb-chernyy-1657216721/?at=46tR2nj3ysD8k3K5i11W8PVSyJBKkgFXPr4n4I03X90M</t>
+          <t>https://www.ozon.ru/product/oppo-smartfon-a3x-rostest-eac-4-128-gb-lazurnyy-1699428524/?at=WPtNLQpG2sPZ7mQzsGv4vGJFl8E0PlC3j15JmtqJnk4J</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1936982238</t>
+          <t>2212824646</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OPPO Смартфон A5 Pro Ростест (EAC) 8/256 ГБ, оливковый</t>
+          <t>Meizu Смартфон Meizu Mblu 22Pro Ростест (EAC) 6/256 ГБ, синий</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Meizu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12399</t>
+          <t>6594</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15499</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>22999</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1 493 отзыва</t>
-        </is>
-      </c>
+          <t>25456</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Real Digital Store</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/171048/</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>ООО ДС КОММЬЮНИКЕЙШН; г. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф; 1177746805708</t>
-        </is>
-      </c>
+          <t>https://www.ozon.ru/seller/800009/</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/oppo-smartfon-a5-pro-rostest-eac-8-256-gb-olivkovyy-1936982238/?at=XQtkPg601F2909rtOVmYJQtgPZqo7uJ0k5B1UWOM40V</t>
+          <t>https://www.ozon.ru/product/meizu-smartfon-meizu-mblu-22pro-rostest-eac-6-256-gb-siniy-2212824646/?at=28t024xOvHGEPxYKTW1zLQmiBJXlP4ckW5xyMTlxWxGr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1728097072</t>
+          <t>1773407495</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HUAWEI Смартфон Pura 70 12/256 ГБ, черный</t>
+          <t>realme Смартфон realme Note 60 Ростест (EAC) 4/128 ГБ, черный</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>46463</t>
+          <t>5487</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>48399</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>54999</t>
+          <t>9999</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17 отзывов</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Federal Express</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/seller/2233584/</t>
-        </is>
-      </c>
+          <t>3 236 отзывов</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/huawei-smartfon-pura-70-12-256-gb-chernyy-1728097072/?at=VvtznE497cAPLlKvfJr5vWGuEgVgY1fv2Z9X6cvvKgo9</t>
+          <t>https://www.ozon.ru/product/realme-smartfon-realme-note-60-rostest-eac-4-128-gb-chernyy-1773407495/?at=6WtZ6g38EHxBwxvET9XWAyVT9Z12ONHYr9O71TlYJV2E</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2003611123</t>
+          <t>1469526277</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Poco Смартфон C75 EU 6/128 ГБ, черный</t>
+          <t>Tecno Смартфон POVA 6 Pro 5G Ростест (EAC) 12/256 ГБ, черный</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Poco</t>
+          <t>Tecno</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8947</t>
+          <t>22806</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9406</t>
+          <t>24069</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>39999</t>
+          <t>38337</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1 313 отзывов</t>
+          <t>2 222 отзыва</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SV SMARTPHONE</t>
+          <t>TECNO STORE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1685463/</t>
+          <t>https://www.ozon.ru/seller/1452131/</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ИП Соболь Влада Владимировна; 324290000003171</t>
+          <t>ООО "КИБЕР ЭНЕРДЖИ"; 127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д 32; 1237700690864</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/poco-smartfon-c75-eu-6-128-gb-chernyy-2003611123/?at=OgtELgP4JhE24ovlhBqxGmBfvQ3MVYUPrPmgizAQ5pz</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1785849800</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, черный, хром</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GK Retail</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5632</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5934</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>20000</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>4 418 отзывов</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>GK Market</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/seller/1713457/</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>ИП Каширина Галина Викторовна; 324010000003051</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-chernyy-hrom-1785849800/?at=gpt41jgprh7xl9KLtQ7JjlmIzA9vryFW2JOzMsnzwOAm</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1771387609</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>realme Смартфон Note 60X Ростест (EAC) 3/64 ГБ, черный</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>realme</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4999</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8499</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>7 048 отзывов</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>realme</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/seller/216243/</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>ООО "РМ КОММЬЮНИКЕЙШН"; 115280, г. Москва, вн.тер.г. Муниципальный округ Даниловский, улица Ленинская Слобода, Д. 19, помещение 21В/1H/5.; 1197746267355</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/realme-smartfon-note-60x-rostest-eac-3-64-gb-chernyy-1771387609/?at=DqtDLW601T7MOqrmU3z2kLAUN1X2JnHnvoL0ocqM2P0P</t>
+          <t>https://www.ozon.ru/product/tecno-smartfon-pova-6-pro-5g-rostest-eac-12-256-gb-chernyy-1469526277/?at=NOtwqQnXAcm86Q7xIYEMv4EInWWwNgTy9qKZZUm59wPV</t>
         </is>
       </c>
     </row>

--- a/ozon_products.xlsx
+++ b/ozon_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,17 +434,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="63" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="73" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
     <col width="37" customWidth="1" min="10" max="10"/>
-    <col width="100" customWidth="1" min="11" max="11"/>
-    <col width="149" customWidth="1" min="12" max="12"/>
+    <col width="106" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="165" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,6 +506,11 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>ИНН</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Ссылка на товар</t>
         </is>
       </c>
@@ -512,468 +518,335 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1849970704</t>
+          <t>1410819187</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple Смартфон iPhone 13 4/256 ГБ, розовый</t>
+          <t>Шаровой кран ROMMER RBV-0003-2110215 1/2" ВН/ВН ручка бабочка</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>ROMMER</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34756</t>
+          <t>233</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36649</t>
+          <t>244</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>317</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>82 отзыва</t>
+          <t>486 отзывов</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Телефонный звонок</t>
+          <t>Jakko</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/2566435/</t>
+          <t>https://www.ozon.ru/seller/1384222/</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ООО "МДА"; 427243, Россия, Удмуртская Республика, Кыйлуд, ул Полевая, д 1; 1251800000253</t>
+          <t>ООО "ТЕХСТРОЙТОРГ"; 142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apple-smartfon-iphone-13-4-256-gb-rozovyy-1849970704/?at=WPtNLQpG2s0j9yBZUp5rK9JcmPmGo5TogLP2Ef1p5oNz</t>
+          <t xml:space="preserve"> 1235000056422</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0003-2110215-1-2-vn-vn-ruchka-babochka-1410819187/?at=nRtrZ1ZVMI7JA2JFZBGkXQhjE4k1fY8x6OVIomjQvL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2003611081</t>
+          <t>1768339146</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poco Смартфон POCO C65 EU 8/256 ГБ, черный</t>
+          <t>Шаровой кран с мини резьбой 1/4 1 шт</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Poco</t>
+          <t>KLSA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13840</t>
+          <t>429</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14571</t>
+          <t>459</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>39999</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1 048 отзывов</t>
+          <t>113 отзывов</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SV SMARTPHONE</t>
+          <t>KLSA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1685463/</t>
+          <t>https://www.ozon.ru/seller/2477488/</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ИП Соболь Влада Владимировна; 324290000003171</t>
+          <t>ООО "ИСКРА"; 117041, Россия, Москва, поселение Сосенское,, Коммунарка, улица Потаповская Роща, 2, 5</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/poco-smartfon-poco-c65-eu-8-256-gb-chernyy-2003611081/?at=K8tZyYAmlHMjLxnNSGBrWBYC4PGWo6HK3A9JEIEJlNLz</t>
+          <t xml:space="preserve"> 1247700094840</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-s-mini-rezboy-1-4-1-sht-1768339146/?at=qQtJyxyvmcgWBVjWHwMPLzRf7x9k3Yh740vm9FQK1DMv</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1787663051</t>
+          <t>953722516</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, темно-серый, черный</t>
+          <t>Кран шаровый 3/4 для воды латунный внутренняя резьба ручка рычаг ROMMER</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GK Retail</t>
+          <t>Rommer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>550</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5934</t>
+          <t>589</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>856</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5 427 отзывов</t>
+          <t>4 отзыва</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>GK Market</t>
+          <t>ТЕРМОСЕИЛ</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1713457/</t>
+          <t>https://www.ozon.ru/seller/846723/</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ИП Каширина Галина Викторовна; 324010000003051</t>
+          <t>ООО "ТЕРМОСЕЙЛ"; 125499, Г.Москва, г Москва, Кронштадтский б-р, к 1, д 39, пом. 1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-temno-seryy-chernyy-1787663051/?at=oZt6V1oZMu5X9OmMtOB7KGxH83BwPVuMmRJWrH8kwGBK</t>
+          <t xml:space="preserve"> 1227700631894</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-3-4-dlya-vody-latunnyy-vnutrennyaya-rezba-ruchka-rychag-rommer-953722516/?at=PjtJ121nycZQxXV2UArPlZQuBr46lRFn89g4AuGgrDZO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1785849800</t>
+          <t>1585989390</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GK Retail Смартфон Ростест (EAC) 16/1 ТБ, черный, хром</t>
+          <t>Кран шаровый водоразборный со штуцером 1/2" ручка</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GK Retail</t>
+          <t>MasterProf</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>349</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5934</t>
+          <t>374</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4 418 отзывов</t>
+          <t>1 831 отзыв</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>GK Market</t>
+          <t>MasterProf</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1713457/</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>https://www.ozon.ru/seller/1667888/</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ИП Богданова Арина Владимировна</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/gk-retail-smartfon-rostest-eac-16-1-tb-chernyy-hrom-1785849800/?at=J8tgW245RunVPA2JUOq7PoLuy051WgHglK6WlI9OAznk</t>
+          <t xml:space="preserve"> 324470400000458</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-vodorazbornyy-so-shtutserom-1-2-ruchka-1585989390/?at=WPtNLQL8lclZ9kwPCWOgDpNiv5mLWoiL9GprPcXry4qV</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1699428524</t>
+          <t>1715723947</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OPPO Смартфон A3x Ростест (EAC) 4/128 ГБ, лазурный</t>
+          <t>Кран шаровый 1/2" ГАЛЛОП, вн-нар, ручка - 2 шт.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Галлоп</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>544</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>582</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11999</t>
+          <t>890</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1 183 отзыва</t>
+          <t>1 817 отзывов</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>MixMART</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/171048/</t>
+          <t>https://www.ozon.ru/seller/2337280/</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ООО ДС КОММЬЮНИКЕЙШН; г. Москва, ул. Ленинская Слобода, д. 19 этаж 3 Ч. к. 21Ф; 1177746805708</t>
+          <t>ИП Заволокина Любовь Николаевна</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/oppo-smartfon-a3x-rostest-eac-4-128-gb-lazurnyy-1699428524/?at=WPtNLQpG2sPZ7mQzsGv4vGJFl8E0PlC3j15JmtqJnk4J</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2212824646</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Meizu Смартфон Meizu Mblu 22Pro Ростест (EAC) 6/256 ГБ, синий</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Meizu</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6594</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7020</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>25456</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Real Digital Store</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/seller/800009/</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/meizu-smartfon-meizu-mblu-22pro-rostest-eac-6-256-gb-siniy-2212824646/?at=28t024xOvHGEPxYKTW1zLQmiBJXlP4ckW5xyMTlxWxGr</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1773407495</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>realme Смартфон realme Note 60 Ростест (EAC) 4/128 ГБ, черный</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>realme</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5487</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5599</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>3 236 отзывов</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/realme-smartfon-realme-note-60-rostest-eac-4-128-gb-chernyy-1773407495/?at=6WtZ6g38EHxBwxvET9XWAyVT9Z12ONHYr9O71TlYJV2E</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1469526277</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tecno Смартфон POVA 6 Pro 5G Ростест (EAC) 12/256 ГБ, черный</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tecno</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22806</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24069</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>38337</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2 222 отзыва</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>TECNO STORE</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/seller/1452131/</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>ООО "КИБЕР ЭНЕРДЖИ"; 127238, Россия, Москва, г Москва, Дмитровское шоссе, к 2, д 32; 1237700690864</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/tecno-smartfon-pova-6-pro-5g-rostest-eac-12-256-gb-chernyy-1469526277/?at=NOtwqQnXAcm86Q7xIYEMv4EInWWwNgTy9qKZZUm59wPV</t>
+          <t xml:space="preserve"> 324460000039577</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-gallop-vn-nar-ruchka-2-sht-1715723947/?at=46tR2n2xLIky6XLf3x52lyhWoA9o5Sq77NZ5TWR0G41</t>
         </is>
       </c>
     </row>

--- a/ozon_products.xlsx
+++ b/ozon_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,18 +434,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="73" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="119" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="9" max="9"/>
     <col width="37" customWidth="1" min="10" max="10"/>
-    <col width="106" customWidth="1" min="11" max="11"/>
-    <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="165" customWidth="1" min="13" max="13"/>
+    <col width="109" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="187" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -501,12 +501,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Данные</t>
+          <t>Данные продавца</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ИНН</t>
+          <t>ИНН продавца</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -518,32 +518,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1410819187</t>
+          <t>438295368</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Шаровой кран ROMMER RBV-0003-2110215 1/2" ВН/ВН ручка бабочка</t>
+          <t>Кран шаровой ВР-ВР 3/8" mini</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ROMMER</t>
+          <t>KRANZILLA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>698</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -553,64 +553,64 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>486 отзывов</t>
+          <t>82 отзыва</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Jakko</t>
+          <t>Сантехника Della Vitta</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1384222/</t>
+          <t>https://www.ozon.ru/seller/263282/</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ООО "ТЕХСТРОЙТОРГ"; 142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 1</t>
+          <t>ООО КРАНЗИЛЛА141007, Московская область, Мытищи, Академика Каргина, 35А,</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1235000056422</t>
+          <t>501215000081460</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0003-2110215-1-2-vn-vn-ruchka-babochka-1410819187/?at=nRtrZ1ZVMI7JA2JFZBGkXQhjE4k1fY8x6OVIomjQvL</t>
+          <t>https://www.ozon.ru/product/kran-sharovoy-vr-vr-3-8-mini-438295368/?at=16tLAoWY2ip6Z4XmH6Z7YkgcQ5Z1A3hOY9z71fmB1rXk</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1768339146</t>
+          <t>2106901409</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Шаровой кран с мини резьбой 1/4 1 шт</t>
+          <t>Кран шаровый 1/2 латунный с внутренней и наружной резьбой(2шт)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KLSA</t>
+          <t>Краны</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>518</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>554</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,233 +620,3068 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>113 отзывов</t>
+          <t>328 отзывов</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>KLSA</t>
+          <t>AV-WATER</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/2477488/</t>
+          <t>https://www.ozon.ru/seller/2921658/</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ООО "ИСКРА"; 117041, Россия, Москва, поселение Сосенское,, Коммунарка, улица Потаповская Роща, 2, 5</t>
+          <t>ИП Белоус Евгений Анатольевич</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1247700094840</t>
+          <t>325665800094191</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/sharovoy-kran-s-mini-rezboy-1-4-1-sht-1768339146/?at=qQtJyxyvmcgWBVjWHwMPLzRf7x9k3Yh740vm9FQK1DMv</t>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-latunnyy-s-vnutrenney-i-naruzhnoy-rezboy-2sht-2106901409/?at=oZt6VRWzjF5kXqr2HgG3G04FWJXRjDHvEXk7Rty10Z2W</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>953722516</t>
+          <t>1449547013</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Кран шаровый 3/4 для воды латунный внутренняя резьба ручка рычаг ROMMER</t>
+          <t>Кран шаровый 1" для воды бабочка, никель, ONDO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rommer</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>639</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>683</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4 отзыва</t>
+          <t>19 отзывов</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ТЕРМОСЕИЛ</t>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/846723/</t>
+          <t>https://www.ozon.ru/seller/25830/</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ООО "ТЕРМОСЕЙЛ"; 125499, Г.Москва, г Москва, Кронштадтский б-р, к 1, д 39, пом. 1</t>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1227700631894</t>
+          <t>177746291623</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovyy-3-4-dlya-vody-latunnyy-vnutrennyaya-rezba-ruchka-rychag-rommer-953722516/?at=PjtJ121nycZQxXV2UArPlZQuBr46lRFn89g4AuGgrDZO</t>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-dlya-vody-babochka-nikel-ondo-1449547013/?at=83tB504RDTMnpN5pCzOnj4rH0GZ0jAiL7V2VrtKoVjZG</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1585989390</t>
+          <t>1959796023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Кран шаровый водоразборный со штуцером 1/2" ручка</t>
+          <t>Кран шаровый для воды СTM СТАНДАРТ 3/4" водоразборный рычаг (2 шт)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MasterProf</t>
+          <t>СТМ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>994</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>2799</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1 831 отзыв</t>
+          <t>1 560 отзывов</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MasterProf</t>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/1667888/</t>
+          <t>https://www.ozon.ru/seller/25830/</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ИП Богданова Арина Владимировна</t>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 324470400000458</t>
+          <t>177746291623</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovyy-vodorazbornyy-so-shtutserom-1-2-ruchka-1585989390/?at=WPtNLQL8lclZ9kwPCWOgDpNiv5mLWoiL9GprPcXry4qV</t>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-stm-standart-3-4-vodorazbornyy-rychag-2-sht-1959796023/?at=ywtAPwVMqunlDkYOs52QvR6cN1WB5PSY9QVM8iJzRWgj</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1715723947</t>
+          <t>1959846891</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Кран шаровый 1/2" ГАЛЛОП, вн-нар, ручка - 2 шт.</t>
+          <t>Кран шаровый для воды 1/2" СTM СТАНДАРТ внутренняя резьба ручка-бабочка (2 шт)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>209 отзывов</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-1-2-stm-standart-vnutrennyaya-rezba-ruchka-babochka-2-sht-1959846891/?at=nRtrZ2BoAc6gr6VcG0RNvOuz0KzPoc0JVBg6tmynVyl</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1860362135</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ручка для шарового крана 1 дюйм,красная и синяя</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>49 отзывов</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Морской Бриз</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1945752/</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ИП Котлышев Ильдар Сергеевич</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>324619600090826</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/ruchka-dlya-sharovogo-krana-1-dyuym-krasnaya-i-sinyaya-1860362135/?at=XQtkPRrYVcEBoxWpfO4yYRnIrVqWMGhVjYmQlsgzD0Lz</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1959982022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2", наружная резьба СТМ СТАНДАРТ (4 шт)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2999</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>771 отзыв</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-1-2-naruzhnaya-rezba-stm-standart-4-sht-1959982022/?at=57twP7NG5cWWMljlcAqQY79Fp6kllQUJwg8wmFxDQPmk</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>174407339</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Кран шаровый для стиральной машины угловой СTM 1/2"х3/8" штуцер-штуцер с цангой и отражателем бабочка, хром, CACR1238</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>63 отзыва</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-stiralnoy-mashiny-uglovoy-stm-1-2-h3-8-shtutser-shtutser-s-tsangoy-i-174407339/?at=pZtp0W681S5pvm4YiL0Kq6WtmqB4ZluDED32Qco7Kgvp</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1897608108</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Кран шаровой Bugatti OREGON 307 03070060 1/2" Внутренний-Наружный (бабочка) - 2 шт.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>43 отзыва</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>GreenMarket</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/972104/</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ИП Григорян Григор Ашотович</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>323774600129934</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-bugatti-oregon-307-03070060-1-2-vnutrenniy-naruzhnyy-babochka-2-sht-1897608108/?at=XQtkPRrYVc66xLpLU2wVAONfgz3orOhEEDW2vTxzvG74</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1617703222</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кран шаровой садовый НР 1/2 два выхода 3/4'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1291</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12 отзывов</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Звено</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1994477/</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ИП Гришин Павел Иванович</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>324237500188542</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-sadovyy-nr-1-2-dva-vyhoda-3-4-1617703222/?at=46tR2Ok1McOpLvMYFrjwDxTqDXxgKtR8vk7PSqYB7XQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>824327210</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный Bugatti (03070176) 1/2 ВР(г) х 1/2 НР(ш) бабочка прямой</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>97 отзывов</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ART-STROY</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/771393/</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ИП Айвазян Артур Самвелович</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>322774600721463</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-bugatti-03070176-1-2-vr-g-h-1-2-nr-sh-babochka-pryamoy-824327210/?at=oZt6VRWzjFjAZQKyUQJ4RQnu7LLwo6c98Nx4MswBLKWW</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1410870112</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кран шаровой ROMMER ВР/ВР ручка рычаг 3/4 RBV-0001-2110320</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>312 отзывов</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1384222/</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 11</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>235000056422</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-rommer-vr-vr-ruchka-rychag-3-4-rbv-0001-2110320-1410870112/?at=79tnXK7k4h0m1yZEi20VWggIj8qW0pF80QD1nHvL44yP</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1360184680</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кран шаровый 3/4" ВРхВР Veher, 1 шт латунь, ручка рычаг / кран шаровый ДУ20 латунный</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>VEHER</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 198 отзывов</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>РУСХИТ</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1369103/</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ООО "Р-СЕРВИС"129226, г. Москва, ул. Сельскохозяйственная, д.11, корп.3, эт.1, пом.II, ком.1 (РМ140)1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>227700433850</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-3-4-vrhvr-veher-1-sht-latun-ruchka-rychag-kran-sharovyy-du20-latunnyy-1360184680/?at=OgtELjQKzI81mO4rFpMm98Kf6K4mqAfnlDploUv3L3ro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1959853759</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2" СTM СТАНДАРТ внутренняя резьба ручка-бабочка (3 шт)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2299</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>209 отзывов</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-1-2-stm-standart-vnutrennyaya-rezba-ruchka-babochka-3-sht-1959853759/?at=QktJ1pZWMcnY7qLzh5mY59gtyXxvpRi85NqJnIGpWADK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1560676003</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кран для стиральных и посудомоечных машин латунный</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>872 отзыва</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>СанТорг</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1897863/</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ИП Иванов Сергей Геннадьевич</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>304212730700190</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-dlya-stiralnyh-i-posudomoechnyh-mashin-latunnyy-1560676003/?at=XQtkPRrYVcGlWOrjtAq3xY0hVlnlO8IZoRBk4H7xD2Y4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1410869694</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0001-2110315 1/2" ВН/ВН ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>851 отзыв</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1384222/</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 11</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>235000056422</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0001-2110315-1-2-vn-vn-ruchka-rychag-1410869694/?at=lRt6w84Z0FmL5x4Qi094mBrFDlWpzOTRYzMKBIQDknvg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1593913782</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Кран шаровой для воды 1/2" ВР/НР(бабочка)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SantechSystems</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>176 отзывов</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>СанРемонт</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1897384/</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ИП Джалишева Роза Сейдахметовна</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>324237500060317</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-dlya-vody-1-2-vr-nr-babochka-1593913782/?at=x6tP5VNAnTwrgv8ktyO3DZ5F5GoPP1c8XE8nRiREw86J</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>249499797</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Кран шаровой полнопроходной ВР-ВР, рычаг из алюминия Gappo G226.05 3/4"x3/4" уп. 1 шт.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Gappo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Gappo Official Store</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/15864/</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ИП Волченков Кирилл Алексеевич</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>318774600386550</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-polnoprohodnoy-vr-vr-rychag-iz-alyuminiya-gappo-g226-05-3-4-x3-4-up-1-sht-249499797/?at=BrtzXr24ptAXD0MVFVqRrgDh265qMNTDKXRkZT3RvzL8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1410914465</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1384222/</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 11</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>235000056422</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-stout-polnoprohodnoy-vr-vr-ruchka-rychag-1-2-svb-0001-200015-1410914465/?at=79tnXK7k4h0YDKOOFLE8LkEFPpl4PWI9grjnlIp4ZAR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2129229507</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Кран шаровый быстрый съем ПЭ 25 х БРС Spektr</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Spektr</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>35 отзывов</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ТОРГСАНТЕХ</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/179107/</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ИП Ванесян Эдгар Дереникович</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>319502700074839</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-bystryy-sem-pe-25-h-brs-spektr-2129229507/?at=gpt41RQ2OtYD4D04FG5MXXZcQx1Ej3sBoPp4YhXo15nk</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>174393828</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Кран шаровый СTM СТАНДАРТ 1" водоразборный рычаг</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2599</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1 560 отзывов</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-stm-standart-1-vodorazbornyy-rychag-174393828/?at=ywtAPwVMqu69vEJ9TVJpW14uRw8p6BIpxAGnjUDyGnl7</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1893565034</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/76009/</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ИП Зотов Сергей Анатольевич</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>320619600102590</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/oventrop-optibal-1-2-vn-kran-sharovoy-babochka-udlinennaya-pryamoy-1893565034/?at=pZtp0W681SQM24vKtJr9zROUGoA05AI6W2kmgSkVzLGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1416935376</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Кран для бытовых приборов, Diadonna, диаметр подключения 1/2-3/4"</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Diadonna</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>57 отзывов</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Poryadok</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1294856/</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ООО ООО "ПРАЙМ"394028, г Воронеж, ул Волгоградская, , д 32,1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>233600006903</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-dlya-bytovyh-priborov-diadonna-diametr-podklyucheniya-1-2-3-4-1416935376/?at=LZtlDr81yt2WQWOqhmQPVo7FvQjLK4cXRqRp1u96yoZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2131601156</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный ВР/НР G1/2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Кран для сантехники</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>9 отзывов</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ИП Морозов П.А.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/552797/</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ИП Морозов Павел Александрович</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>321723200073243</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-vr-nr-g1-2-2131601156/?at=46tR2Ok1Mc8RYM5nC0ORoAntxBjk8NcNRORNkH11X4gQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>414890526</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-dlya-gaza-i-vody-1-dyuym-sharovyy-gayka-shtutser-rychag-optima-gaz-414890526/?at=MZtvy1mZMIolrJ3mfNkVYGhoVPgDNT9Ezj60uwYA8JD</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1832759439</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Шаровой кран 1/2 дюйм RTP вн/нар PN 25 латунный, ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>197 отзывов</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>УК  Волмакс</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/2503612/</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ООО ООО "УК "ВОЛМАКС"140304, Россия, Московская Область, г Егорьевск, ул Антипова, д 48Б1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>245000092083</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-1-2-dyuym-rtp-vn-nar-pn-25-latunnyy-ruchka-rychag-1832759439/?at=79tnXK7k4h0W9R9BUNKkmw6InrW5RPT0M85XwFYXYqBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>174272829</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1-1/4" СTM СТАНДАРТ внутренняя резьба ручка-рычаг</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>395 отзывов</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-1-1-4-stm-standart-vnutrennyaya-rezba-ruchka-rychag-174272829/?at=79tnXK7k4hB05oBGCEWWVA3HJYRYLrhpB9PlOc739n0X</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2008337348</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Шаровой кран с электроприводом, 1/2, дюйма, 220 В, 3-проводной, 2-точечный, латунный, электрический шаровой кран</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7512</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5 отзывов</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Качественная продукция</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/2629518/</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ИП Цзэн Чжаохуа</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>324774600016415</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-s-elektroprivodom-1-2-dyuyma-220-v-3-provodnoy-2-tochechnyy-latunnyy-elektricheskiy-2008337348/?at=GRt2NRXMKH77Z110HwAlxNjIKJXopAUQlKW3kupNzjyV</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1946609040</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Кран шаровой угловой с накидной гайкой 1/2" с наружной резьбой TIM арт. BV211-C02N</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>22 отзыва</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>АМС сантехника</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/139084/</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ИП Аперян Манвел Сергеевич</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>309774611201220</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-uglovoy-s-nakidnoy-gaykoy-1-2-s-naruzhnoy-rezboy-tim-art-bv211-c02n-1946609040/?at=83tB504RDT1g9J8oIZjRmvRiZG15Exc7N6E95hMLBYqJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1410898273</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0004-2210215 1/2" ВН/НР ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1 413 отзывов</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1384222/</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 11</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>235000056422</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0004-2210215-1-2-vn-nr-ruchka-babochka-1410898273/?at=57twP7NG5cyL4ojkt8RKmPlhwr8WzLFL1WBZXcxXzNyx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>194418614</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 4" СTM СТАНДАРТ внутренняя резьба ручка-рычаг</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10029</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10676</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>23499</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>395 отзывов</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-4-stm-standart-vnutrennyaya-rezba-ruchka-rychag-194418614/?at=Eqtk82XDVcDQx7mwcGR9zBzCK8oWG3imX7mv2sNQ5VmM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1410819187</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0003-2110215 1/2" ВН/ВН ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>491 отзыв</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1384222/</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 11</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>235000056422</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0003-2110215-1-2-vn-vn-ruchka-babochka-1410819187/?at=99trWX7BLcBmXkmBFMyJ6VmiRXQ2YYcPkr449HNz16wR</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1966588846</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 16х16 цанга-цанга бабочка (3 шт)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1263</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3399</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>674 отзыва</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-16h16-tsanga-tsanga-babochka-3-sht-1966588846/?at=vQtrn5V6pcy887VQu2KyQEAIKy9G3RUP1r92ZtGlpv9l</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1360184785</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" для полива водоразборный, ручка рычаг / кран садовый со штуцером под шланг 1 шт</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>VEHER</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2 198 отзывов</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>РУСХИТ</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1369103/</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ООО "Р-СЕРВИС"129226, г. Москва, ул. Сельскохозяйственная, д.11, корп.3, эт.1, пом.II, ком.1 (РМ140)1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>227700433850</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-dlya-poliva-vodorazbornyy-ruchka-rychag-kran-sadovyy-so-shtutserom-pod-shlang-1360184785/?at=GRt2NRXMKHOwZGQMhyw83RMFqy1lNmHD2GlQLH4olWDx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2054183129</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Кран шаровой 3/4, бабочка, 1 штука</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>18 отзывов</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ИП Архипова Анна Юрьевна</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1398644/</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ИП Архипова Анна Юрьевна</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>323344300094466</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-3-4-babochka-1-shtuka-2054183129/?at=08tYX5P3qc97r2PgtLpm3PGu1lOqV2CR1JZG9S0nrE6m</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>900693610</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Шаровый кран 1/2 дюйма RTP шаровой латунный вн/нар PN 40 ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1 857 отзывов</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Официальный магазин RTP</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/998920/</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ООО "ЮТАРА"140002, Московская область, г.о. Люберцы, г. Люберцы, Октябрьский пр-кт, д.11</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>217700012089</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovyy-kran-1-2-dyuyma-rtp-sharovoy-latunnyy-vn-nar-pn-40-ruchka-babochka-900693610/?at=Vvtzn6QANty6p0o4uDEL5RKuD5A9Z5sRp0qw0TAZvZGo</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1309408927</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Кран шаровый Bugatti (301) 1/2" ВВ ручка</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>72 отзыва</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>МИР САНТЕХНИКИ</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1540933/</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ИП Калантарян Лиана Жораевна</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>313344321400080</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-bugatti-301-1-2-vv-ruchka-1309408927/?at=Eqtk82XDVcLM3r3MsEVOnmPF7pwlBMcplY2j6SPoP21p</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2173876309</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Кран для газа 1/2 ВР-НР 40 BAR бабочка TEMPER</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>TEMPER</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1 отзыв</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ФЛОДУС АРМ</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/2709080/</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ИП Чебанов Кирилл Игоревич</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>325745600043577</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-dlya-gaza-1-2-vr-nr-40-bar-babochka-temper-2173876309/?at=57twP7NG5cOLEq4ziPnQQGpi5l5QNVs9y2KXOTK1jPno</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1052569770</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1194501/</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ИП Гарсаян Армен Григорьевич</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>323508100273421</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-3-4-vr-nr-ruchka-rychag-tim-1052569770/?at=08tYX5P3qcPjM2Qgspkvkw3h2Bv9YpSpJ1291ik0y32R</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1959915116</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2" г/ш бабочка CTM СТАНДАРТ (5 шт)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1303</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3799</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>771 отзыв</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-1-2-g-sh-babochka-ctm-standart-5-sht-1959915116/?at=jYtZ4XNqKi5yknVzUMG0zNQHEGgJzxTrAklpKhM7Znv7</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1966249468</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2 СTM СТАНДАРТ с фильтром ручка-рычаг (3 шт)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1419</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1517</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3799</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>253 отзыва</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-1-2-stm-standart-s-filtrom-ruchka-rychag-3-sht-1966249468/?at=nRtrZ2BoAcOQmoQRCDrKVMjhGX7BRWSwQJQJRuLLQyv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1319117444</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" с внутренней и наружной резьбой (2 шт), ГАЛЛОП, серия "Практик"</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Галлоп</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>544</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>582</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>890</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1 817 отзывов</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>MixMART</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/seller/2337280/</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>ИП Заволокина Любовь Николаевна</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 324460000039577</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-gallop-vn-nar-ruchka-2-sht-1715723947/?at=46tR2n2xLIky6XLf3x52lyhWoA9o5Sq77NZ5TWR0G41</t>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2 906 отзывов</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>AZEL</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1373437/</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ИП Фатхуллина Эльвира Гумяровна, ИП</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>323730000050351</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-s-vnutrenney-i-naruzhnoy-rezboy-2-sht-gallop-seriya-praktik-1319117444/?at=28t02XywPI86D80RIkgR8ngiAAEgYJTrAQDrEfOLOw9N</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2106990301</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" латунный с наружной резьбой(рычаг)(2шт)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>328 отзывов</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>AV-WATER</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/2921658/</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ИП Белоус Евгений Анатольевич</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>325665800094191</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-latunnyy-s-naruzhnoy-rezboy-rychag-2sht-2106990301/?at=Y7tjWqBxEh653NXoSKw1ovwcGzzlERFvGR4JF1OOV7V</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1988370866</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Мини кран шаровой хромированный 1/2" ВР/НР TIM DE22MF</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>49 отзывов</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Ренессанс</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/2698426/</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ИП Григорян Амест Айказовна</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>325508100135801</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/mini-kran-sharovoy-hromirovannyy-1-2-vr-nr-tim-de22mf-1988370866/?at=6WtZ6vwKjiMyorm1sjwgqV7FxnV1rJCD9Gm2iMDkK08</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>951303261</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1089109/</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ИП Авалян Армен Жораи</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>320344300037267</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/trehprohodnoy-kran-1-2-3-4-1-2-bugatti-dlya-stiralnoy-i-posudomoechnoy-mashiny-951303261/?at=GRt2NRXMKHNDl2M8hQzo8lytBOZpLJcM6VNGkuAyXGwz</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>174120486</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2" СTM СТАНДАРТ внутренняя резьба ручка-бабочка</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>209 отзывов</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-1-2-stm-standart-vnutrennyaya-rezba-ruchka-babochka-174120486/?at=OgtELjQKzIRlxXv8iNA09LqsVzOLqmT0PVoP1TkVN9mg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1410819107</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0002-2210320 3/4" ВН/НР ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>276 отзывов</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1384222/</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 11</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>235000056422</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0002-2210320-3-4-vn-nr-ruchka-rychag-1410819107/?at=k2toyjGQ8IGNZ3mVh4XNOZksND3vENhk34PQPiRGEpkD</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1884181765</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ручка-рычаг ITAP N2 для шарового крана, красная 086(2MIS.)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Itap</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>35 отзывов</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Сантехникофф</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/615302/</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ИП Чумаков Роман Викторович</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>317784700144644</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/ruchka-rychag-itap-n2-dlya-sharovogo-krana-krasnaya-086-2mis-1884181765/?at=28t02XywPILv4oR2IkyKgKmt0NgZ5YU3oLYAgtk1Qmx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1926594903</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Кран шаровой OPTIMA 1/2, ручка рычаг, 1 штука, оптима</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>OPTIMA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>23 отзыва</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ИП Архипова Анна Юрьевна</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1398644/</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ИП Архипова Анна Юрьевна</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>323344300094466</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-optima-1-2-ruchka-rychag-1-shtuka-optima-1926594903/?at=57twP7NG5clNQxV2Tn6NWRMczJZ6VBfDWORymtynO2M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1959889447</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2" СTM СТАНДАРТ внутренняя резьба ручка-рычаг (3 шт)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2299</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>395 отзывов</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/25830/</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>177746291623</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-1-2-stm-standart-vnutrennyaya-rezba-ruchka-rychag-3-sht-1959889447/?at=RltyD1ZLjcoPZ73ZUMZlzA6UXEZVYAhwq1QMOTK1G9VO</t>
         </is>
       </c>
     </row>
